--- a/data/04-12-2025_e-files_all.xlsx
+++ b/data/04-12-2025_e-files_all.xlsx
@@ -76,7 +76,7 @@
     <t>SDE/TI/South</t>
   </si>
   <si>
-    <t>26024750-25c2-4d62-a1e5-6c6a344ba985</t>
+    <t>ac083ba6-31b6-46d2-a0fc-b1054dddf822</t>
   </si>
   <si>
     <t>SUBHASIS ATORTHY</t>
@@ -91,7 +91,7 @@
     <t>SDE/PLG/BA_SOUTH</t>
   </si>
   <si>
-    <t>3bd655df-494a-4a40-a319-61c4c925bb42</t>
+    <t>98c0d741-88f6-4d68-b35d-2433217c1e28</t>
   </si>
   <si>
     <t>PARTHA SARATHI SARDAR</t>
@@ -112,7 +112,7 @@
     <t>CLOSURE AND VACATING of the A.P. NAGAR Telephone Exchange at A.P. Nagar</t>
   </si>
   <si>
-    <t>a862f5a9-2c3e-44f7-8bc5-0edc8ced01f4</t>
+    <t>bb17adba-9b24-49ec-9e5c-dcbb2313190e</t>
   </si>
 </sst>
 </file>
